--- a/test-input/add-steps-in-new-test.xlsx
+++ b/test-input/add-steps-in-new-test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool-tests\test-input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\git-repos\poc-tam\server\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB8035-787B-476C-85A6-3ACE73C449B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="7245"/>
+    <workbookView xWindow="1815" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -57,6 +58,9 @@
     <t>openSuite</t>
   </si>
   <si>
+    <t>suiteName=suite-1</t>
+  </si>
+  <si>
     <t>Suite</t>
   </si>
   <si>
@@ -84,19 +88,16 @@
     <t>numberOfSteps=0</t>
   </si>
   <si>
-    <t>suiteName=suite-2</t>
-  </si>
-  <si>
-    <t>suite-0</t>
-  </si>
-  <si>
-    <t>testName=test-2</t>
+    <t>addStep</t>
+  </si>
+  <si>
+    <t>object=Tool;name=tool;action=toCasesTab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +163,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -174,7 +175,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -221,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -256,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,22 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -450,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -461,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -475,63 +502,63 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
